--- a/scripts/ccf_registration/wb3_sa1/WB3_sa_cell_types_to_annotations.xlsx
+++ b/scripts/ccf_registration/wb3_sa1/WB3_sa_cell_types_to_annotations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CCF_registration_final\wb3_sa1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\230801_CCF_registration_final\wb3_sa1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1165D76-2A0D-447C-B3D1-B357F7AA0B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184A9AC0-BED5-40B7-83D0-2AA270613F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5683694A-E617-4D30-8F16-149C18CDE99A}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12735" xr2:uid="{5683694A-E617-4D30-8F16-149C18CDE99A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>[215]</t>
   </si>
@@ -664,8 +664,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,9 +1204,6 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B32" t="s">
         <v>79</v>
       </c>
